--- a/templates/camioneros.xlsx
+++ b/templates/camioneros.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\learnsoftcuevas\Desktop\Golearsoft\Nueva\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54714360-2D8D-4ADE-BDFB-DB6C1984C944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA55A68D-77C1-4ED8-8B9B-C412B2FBA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11160"/>
+    <workbookView xWindow="5175" yWindow="1800" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camioneros" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +170,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +356,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,8 +525,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -868,25 +884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>